--- a/data/trans_dic/iP30B2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B2_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>56,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>52,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>54,7%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,34; 65,42</t>
+          <t>50,24; 62,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,1; 60,8</t>
+          <t>46,94; 59,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,69; 61,84</t>
+          <t>50,45; 58,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>60,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>55,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>58,23%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,24; 62,69</t>
+          <t>55,34; 65,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,94; 59,22</t>
+          <t>50,1; 60,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,45; 58,57</t>
+          <t>54,69; 61,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B2_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que toman frutos sexos con regularidad (al menos 2-3 veces a la semana)</t>
+          <t>Menores que toman frutos secos con regularidad (al menos 2-3 veces a la semana)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>32,19%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,15; 52,78</t>
+          <t>25,88; 48,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,54; 44,37</t>
+          <t>19,0; 39,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,34; 46,76</t>
+          <t>24,62; 40,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>53,6%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,24; 62,69</t>
+          <t>49,57; 61,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,94; 59,22</t>
+          <t>44,44; 57,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,45; 58,57</t>
+          <t>49,37; 57,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>55,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>57,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>56,69%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,34; 65,42</t>
+          <t>49,95; 62,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,1; 60,8</t>
+          <t>50,29; 63,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,69; 61,84</t>
+          <t>52,34; 61,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>57,3%</t>
+          <t>62,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>57,79%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,72; 60,74</t>
+          <t>55,66; 67,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,43; 55,68</t>
+          <t>47,28; 59,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,35; 57,27</t>
+          <t>53,57; 61,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>57,3%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>51,93%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>54,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>53,74; 60,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>48,5; 55,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>52,34; 57,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
